--- a/data/pca/factorExposure/factorExposure_2009-12-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-12-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.003604969833154105</v>
+        <v>0.01702679481242661</v>
       </c>
       <c r="C2">
-        <v>0.008518359029923548</v>
+        <v>-0.001196680727592831</v>
       </c>
       <c r="D2">
-        <v>-0.003315821574876481</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.006588802119375607</v>
+      </c>
+      <c r="E2">
+        <v>-0.0003124780078737246</v>
+      </c>
+      <c r="F2">
+        <v>0.01133368311073362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.03085657984879301</v>
+        <v>0.09374033794628708</v>
       </c>
       <c r="C4">
-        <v>0.1195835739142656</v>
+        <v>-0.01558762718969035</v>
       </c>
       <c r="D4">
-        <v>-0.02738986935836039</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.084074759986753</v>
+      </c>
+      <c r="E4">
+        <v>0.0283723769484892</v>
+      </c>
+      <c r="F4">
+        <v>-0.0305370249907384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.0394322889417515</v>
+        <v>0.1571896169586953</v>
       </c>
       <c r="C6">
-        <v>0.1140253434912474</v>
+        <v>-0.02530515361052035</v>
       </c>
       <c r="D6">
-        <v>0.03678668607794419</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02211368793933685</v>
+      </c>
+      <c r="E6">
+        <v>0.009019257821872659</v>
+      </c>
+      <c r="F6">
+        <v>-0.04647052139757062</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.01090020808886163</v>
+        <v>0.06273134793060166</v>
       </c>
       <c r="C7">
-        <v>0.08250769424936183</v>
+        <v>0.001141988959637344</v>
       </c>
       <c r="D7">
-        <v>-0.006570273121418946</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05216526216665799</v>
+      </c>
+      <c r="E7">
+        <v>0.009873730698531672</v>
+      </c>
+      <c r="F7">
+        <v>-0.04658698829582006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.0009034531160389758</v>
+        <v>0.05725727003188693</v>
       </c>
       <c r="C8">
-        <v>0.07164075249529606</v>
+        <v>0.01338377073109048</v>
       </c>
       <c r="D8">
-        <v>0.02484243871144252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03370700622722667</v>
+      </c>
+      <c r="E8">
+        <v>0.01753370818570953</v>
+      </c>
+      <c r="F8">
+        <v>0.02817526053216588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02579576879587524</v>
+        <v>0.07130885822276105</v>
       </c>
       <c r="C9">
-        <v>0.09877144852244647</v>
+        <v>-0.01128142705997563</v>
       </c>
       <c r="D9">
-        <v>-0.03093233790763724</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08585259247144289</v>
+      </c>
+      <c r="E9">
+        <v>0.02293891310583775</v>
+      </c>
+      <c r="F9">
+        <v>-0.04710772212411208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.01250296409672646</v>
+        <v>0.09598261681115547</v>
       </c>
       <c r="C10">
-        <v>0.02632455641037008</v>
+        <v>-0.02030891155824659</v>
       </c>
       <c r="D10">
-        <v>0.1458717354979486</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1725207700714023</v>
+      </c>
+      <c r="E10">
+        <v>-0.03698300647475858</v>
+      </c>
+      <c r="F10">
+        <v>0.0538169125966861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.0303966054393371</v>
+        <v>0.08796035636507879</v>
       </c>
       <c r="C11">
-        <v>0.1034543347618951</v>
+        <v>-0.01093121627667154</v>
       </c>
       <c r="D11">
-        <v>-0.04204895310349668</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1153209859408968</v>
+      </c>
+      <c r="E11">
+        <v>0.04568880193356799</v>
+      </c>
+      <c r="F11">
+        <v>-0.02132647033856373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.02817196088826387</v>
+        <v>0.0921875559366431</v>
       </c>
       <c r="C12">
-        <v>0.1142642533499772</v>
+        <v>-0.008015339257505883</v>
       </c>
       <c r="D12">
-        <v>-0.03786480782916696</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.131342762653942</v>
+      </c>
+      <c r="E12">
+        <v>0.04752295374272351</v>
+      </c>
+      <c r="F12">
+        <v>-0.02543662970149324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.009975921171537545</v>
+        <v>0.04247250078187912</v>
       </c>
       <c r="C13">
-        <v>0.04421515467666285</v>
+        <v>-0.003471164859167533</v>
       </c>
       <c r="D13">
-        <v>-0.02207755291805201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0512512776352122</v>
+      </c>
+      <c r="E13">
+        <v>-0.008575337995125805</v>
+      </c>
+      <c r="F13">
+        <v>-0.002646189449550502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01602823515741552</v>
+        <v>0.02290602256375947</v>
       </c>
       <c r="C14">
-        <v>0.02210462280262152</v>
+        <v>-0.01386378616061217</v>
       </c>
       <c r="D14">
-        <v>0.001281928241097813</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03309244199249767</v>
+      </c>
+      <c r="E14">
+        <v>0.01721778755457948</v>
+      </c>
+      <c r="F14">
+        <v>-0.01420388380779629</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01054483646192632</v>
+        <v>0.03288704908483596</v>
       </c>
       <c r="C15">
-        <v>0.02713259187214152</v>
+        <v>-0.004879928517675334</v>
       </c>
       <c r="D15">
-        <v>-0.01489335907656533</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04545994302196611</v>
+      </c>
+      <c r="E15">
+        <v>0.006497419634085889</v>
+      </c>
+      <c r="F15">
+        <v>-0.02277208710236053</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.01985372923823995</v>
+        <v>0.07413717993506361</v>
       </c>
       <c r="C16">
-        <v>0.1085472410245947</v>
+        <v>-0.00200761942800459</v>
       </c>
       <c r="D16">
-        <v>-0.01947723196669382</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1251012224516955</v>
+      </c>
+      <c r="E16">
+        <v>0.06146816394351032</v>
+      </c>
+      <c r="F16">
+        <v>-0.02411942288827516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03169874526507234</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003227200414502226</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01898660272459162</v>
+      </c>
+      <c r="E18">
+        <v>-0.007450946565880673</v>
+      </c>
+      <c r="F18">
+        <v>0.003465604378697989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01243303807064832</v>
+        <v>0.06107233931456317</v>
       </c>
       <c r="C20">
-        <v>0.06448735515373663</v>
+        <v>-0.000385985107658139</v>
       </c>
       <c r="D20">
-        <v>-0.007542420922489123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07717435346475568</v>
+      </c>
+      <c r="E20">
+        <v>0.05553235993542171</v>
+      </c>
+      <c r="F20">
+        <v>-0.02316690560305212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01380311700017908</v>
+        <v>0.04056400826590042</v>
       </c>
       <c r="C21">
-        <v>0.02586741645404094</v>
+        <v>-0.006561123834060215</v>
       </c>
       <c r="D21">
-        <v>0.007908042758587851</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03670982030514384</v>
+      </c>
+      <c r="E21">
+        <v>-0.005926713664298894</v>
+      </c>
+      <c r="F21">
+        <v>0.02415968775441384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.005485250626668656</v>
+        <v>0.04388064193466689</v>
       </c>
       <c r="C22">
-        <v>0.0296920439753717</v>
+        <v>-0.001005974008843849</v>
       </c>
       <c r="D22">
-        <v>0.04269953532768595</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.002864986406542835</v>
+      </c>
+      <c r="E22">
+        <v>0.02939798681650081</v>
+      </c>
+      <c r="F22">
+        <v>0.03489227307862934</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.005472423856043455</v>
+        <v>0.04386625800895533</v>
       </c>
       <c r="C23">
-        <v>0.02962631314054109</v>
+        <v>-0.001001727446333521</v>
       </c>
       <c r="D23">
-        <v>0.04274743526590673</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002869693614817289</v>
+      </c>
+      <c r="E23">
+        <v>0.02959956133636473</v>
+      </c>
+      <c r="F23">
+        <v>0.03485504061403532</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.01981236227249138</v>
+        <v>0.08039492118118925</v>
       </c>
       <c r="C24">
-        <v>0.1101006441657389</v>
+        <v>-0.002588621569329929</v>
       </c>
       <c r="D24">
-        <v>-0.03344823205357884</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1195788990948631</v>
+      </c>
+      <c r="E24">
+        <v>0.04875297207664442</v>
+      </c>
+      <c r="F24">
+        <v>-0.02568111488184975</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.02559177433804132</v>
+        <v>0.08533963192206515</v>
       </c>
       <c r="C25">
-        <v>0.1120117956686294</v>
+        <v>-0.004801719739178342</v>
       </c>
       <c r="D25">
-        <v>-0.02760719121243531</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1082105881411382</v>
+      </c>
+      <c r="E25">
+        <v>0.03215671934846714</v>
+      </c>
+      <c r="F25">
+        <v>-0.02629766428717375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02429058663833112</v>
+        <v>0.05782953440019997</v>
       </c>
       <c r="C26">
-        <v>0.04903512385726695</v>
+        <v>-0.01457969716418198</v>
       </c>
       <c r="D26">
-        <v>0.01512929545290202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.03950500082911427</v>
+      </c>
+      <c r="E26">
+        <v>0.02753516695952343</v>
+      </c>
+      <c r="F26">
+        <v>0.009580257629095182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.006356957238061718</v>
+        <v>0.1404341085025624</v>
       </c>
       <c r="C28">
-        <v>0.03452098565745652</v>
+        <v>-0.0193648667257493</v>
       </c>
       <c r="D28">
-        <v>0.2162611288331778</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2635210745887591</v>
+      </c>
+      <c r="E28">
+        <v>-0.06822354222440631</v>
+      </c>
+      <c r="F28">
+        <v>-0.009033279693623523</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01308959348157679</v>
+        <v>0.02765767273117296</v>
       </c>
       <c r="C29">
-        <v>0.02817897416485084</v>
+        <v>-0.008135898919438138</v>
       </c>
       <c r="D29">
-        <v>0.008906542363201538</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03229642451779339</v>
+      </c>
+      <c r="E29">
+        <v>0.01126928570328182</v>
+      </c>
+      <c r="F29">
+        <v>0.01043421180968116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.01590666520135356</v>
+        <v>0.0615196313731801</v>
       </c>
       <c r="C30">
-        <v>0.128481083479422</v>
+        <v>-0.003811217316886799</v>
       </c>
       <c r="D30">
-        <v>-0.0286030303518174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08781284692396595</v>
+      </c>
+      <c r="E30">
+        <v>0.01908853964531624</v>
+      </c>
+      <c r="F30">
+        <v>-0.08291057549760693</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02167913507910961</v>
+        <v>0.04995021713184801</v>
       </c>
       <c r="C31">
-        <v>0.03528939852556331</v>
+        <v>-0.01523630450352701</v>
       </c>
       <c r="D31">
-        <v>-0.002937412560002912</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02482978731307703</v>
+      </c>
+      <c r="E31">
+        <v>0.02744927799724545</v>
+      </c>
+      <c r="F31">
+        <v>0.002877116944718232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.008188088067645993</v>
+        <v>0.04995316209237244</v>
       </c>
       <c r="C32">
-        <v>0.05987309842589863</v>
+        <v>0.001700709375518061</v>
       </c>
       <c r="D32">
-        <v>0.0257865632545458</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03629104744840878</v>
+      </c>
+      <c r="E32">
+        <v>0.03101306282371599</v>
+      </c>
+      <c r="F32">
+        <v>-0.002312951481253884</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02276262494805269</v>
+        <v>0.08965547609162824</v>
       </c>
       <c r="C33">
-        <v>0.1123541536101974</v>
+        <v>-0.008012434249929078</v>
       </c>
       <c r="D33">
-        <v>-0.03362341590067234</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.09892941721093357</v>
+      </c>
+      <c r="E33">
+        <v>0.04409964400741515</v>
+      </c>
+      <c r="F33">
+        <v>-0.03562154604432626</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.02756242026337275</v>
+        <v>0.0686041583836362</v>
       </c>
       <c r="C34">
-        <v>0.09444670186610722</v>
+        <v>-0.01111431621849165</v>
       </c>
       <c r="D34">
-        <v>-0.0170095632392155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1064928735271872</v>
+      </c>
+      <c r="E34">
+        <v>0.03459043149866865</v>
+      </c>
+      <c r="F34">
+        <v>-0.03376121739392361</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.00408158580584105</v>
+        <v>0.02416069271579003</v>
       </c>
       <c r="C35">
-        <v>0.01487054057565357</v>
+        <v>-0.002402359063283423</v>
       </c>
       <c r="D35">
-        <v>-0.001236390868307566</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01182248453506252</v>
+      </c>
+      <c r="E35">
+        <v>0.01172734460219332</v>
+      </c>
+      <c r="F35">
+        <v>-0.000932626917276881</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01087024728246305</v>
+        <v>0.02759139118143909</v>
       </c>
       <c r="C36">
-        <v>0.02687125277448514</v>
+        <v>-0.007137485700002614</v>
       </c>
       <c r="D36">
-        <v>-0.01102705525039378</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03957539585016587</v>
+      </c>
+      <c r="E36">
+        <v>0.01611056839079203</v>
+      </c>
+      <c r="F36">
+        <v>-0.01528100308940882</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0003638542931265088</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>6.025021752063432e-05</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0004933372292920235</v>
+      </c>
+      <c r="E37">
+        <v>-0.000431816978804301</v>
+      </c>
+      <c r="F37">
+        <v>-0.0006830220177680942</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0006087948277538825</v>
+        <v>0.00135418073905992</v>
       </c>
       <c r="C38">
-        <v>0.003909959328581892</v>
+        <v>-0.000210607205093642</v>
       </c>
       <c r="D38">
-        <v>0.00159527322615435</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0004905569753960326</v>
+      </c>
+      <c r="E38">
+        <v>0.0008397271739602971</v>
+      </c>
+      <c r="F38">
+        <v>0.000540493911551549</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04293989090922135</v>
+        <v>0.1057680116112016</v>
       </c>
       <c r="C39">
-        <v>0.1637633754514027</v>
+        <v>-0.01629899538518442</v>
       </c>
       <c r="D39">
-        <v>-0.06439076549273576</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1532503964491099</v>
+      </c>
+      <c r="E39">
+        <v>0.05887221083055644</v>
+      </c>
+      <c r="F39">
+        <v>-0.02787743640493631</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01102597333900474</v>
+        <v>0.04133412298907467</v>
       </c>
       <c r="C40">
-        <v>0.01327901281966612</v>
+        <v>-0.007125517255445818</v>
       </c>
       <c r="D40">
-        <v>0.006391690759041235</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03128833778362518</v>
+      </c>
+      <c r="E40">
+        <v>0.002851250808182455</v>
+      </c>
+      <c r="F40">
+        <v>0.01579938852267939</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01138380246080453</v>
+        <v>0.02761801516977663</v>
       </c>
       <c r="C41">
-        <v>0.01872565991198392</v>
+        <v>-0.006683516534988822</v>
       </c>
       <c r="D41">
-        <v>0.01303014400800287</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01073152134695611</v>
+      </c>
+      <c r="E41">
+        <v>0.01255949170953013</v>
+      </c>
+      <c r="F41">
+        <v>0.006817676316257895</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01341045152250868</v>
+        <v>0.04056182996390917</v>
       </c>
       <c r="C43">
-        <v>0.02705421173202955</v>
+        <v>-0.006711306729696338</v>
       </c>
       <c r="D43">
-        <v>0.008142296116446578</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02055599290452148</v>
+      </c>
+      <c r="E43">
+        <v>0.02508204184286917</v>
+      </c>
+      <c r="F43">
+        <v>0.01276987428813436</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.03185657857442836</v>
+        <v>0.08048973249706712</v>
       </c>
       <c r="C44">
-        <v>0.1276361438367307</v>
+        <v>-0.02021424977395034</v>
       </c>
       <c r="D44">
-        <v>-0.01629430993861143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09850179824164923</v>
+      </c>
+      <c r="E44">
+        <v>0.06633007291051637</v>
+      </c>
+      <c r="F44">
+        <v>-0.1569818303165401</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.005370962498018139</v>
+        <v>0.0233825082323737</v>
       </c>
       <c r="C46">
-        <v>0.005965407629432153</v>
+        <v>-0.003295105454098395</v>
       </c>
       <c r="D46">
-        <v>0.0165236847339641</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01405454090414427</v>
+      </c>
+      <c r="E46">
+        <v>0.02284858628873182</v>
+      </c>
+      <c r="F46">
+        <v>0.004625437388680769</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01098200453199835</v>
+        <v>0.0514558458749514</v>
       </c>
       <c r="C47">
-        <v>0.0319039634998891</v>
+        <v>-0.00346145574809738</v>
       </c>
       <c r="D47">
-        <v>0.02744463542487257</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0139913103000585</v>
+      </c>
+      <c r="E47">
+        <v>0.02364252951715908</v>
+      </c>
+      <c r="F47">
+        <v>0.03376991947455742</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01273573251821921</v>
+        <v>0.04981014674144848</v>
       </c>
       <c r="C48">
-        <v>0.04984390175232872</v>
+        <v>-0.002395620355176208</v>
       </c>
       <c r="D48">
-        <v>-0.01093226733630949</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04996438420357276</v>
+      </c>
+      <c r="E48">
+        <v>-0.006335916797599012</v>
+      </c>
+      <c r="F48">
+        <v>-0.009410370303141909</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.03995998849891735</v>
+        <v>0.1996951776330979</v>
       </c>
       <c r="C49">
-        <v>0.2184884124256984</v>
+        <v>-0.01858579767112277</v>
       </c>
       <c r="D49">
-        <v>0.06352515438974955</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007848701063582318</v>
+      </c>
+      <c r="E49">
+        <v>0.0314124618834533</v>
+      </c>
+      <c r="F49">
+        <v>-0.03883406111730734</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.0185821995141447</v>
+        <v>0.05074913204870759</v>
       </c>
       <c r="C50">
-        <v>0.03960656462771445</v>
+        <v>-0.01126061707622788</v>
       </c>
       <c r="D50">
-        <v>0.00537444811225382</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02327654806535417</v>
+      </c>
+      <c r="E50">
+        <v>0.02930705087443004</v>
+      </c>
+      <c r="F50">
+        <v>-0.008554028154969761</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0004272304662575251</v>
+        <v>0.0008692605547932707</v>
       </c>
       <c r="C51">
-        <v>0.002054118007569049</v>
+        <v>-0.0002378078268563006</v>
       </c>
       <c r="D51">
-        <v>0.002984092383293942</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.000663560475824477</v>
+      </c>
+      <c r="E51">
+        <v>1.676879045997874e-05</v>
+      </c>
+      <c r="F51">
+        <v>-0.002749417040559924</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.03208305258126201</v>
+        <v>0.1460613222540517</v>
       </c>
       <c r="C52">
-        <v>0.1498677039643155</v>
+        <v>-0.01541500994319557</v>
       </c>
       <c r="D52">
-        <v>-0.02253319196193745</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04540616808699437</v>
+      </c>
+      <c r="E52">
+        <v>0.02046725997774478</v>
+      </c>
+      <c r="F52">
+        <v>-0.04080434972968037</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.03300784621078817</v>
+        <v>0.1725015130169948</v>
       </c>
       <c r="C53">
-        <v>0.1717601446179098</v>
+        <v>-0.0187257405227319</v>
       </c>
       <c r="D53">
-        <v>0.008241137401679352</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005628621574320317</v>
+      </c>
+      <c r="E53">
+        <v>0.03128554364595373</v>
+      </c>
+      <c r="F53">
+        <v>-0.07244504853838837</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01650550085806973</v>
+        <v>0.02215414996464781</v>
       </c>
       <c r="C54">
-        <v>0.03999661035517468</v>
+        <v>-0.01255150769221811</v>
       </c>
       <c r="D54">
-        <v>0.01304914140648344</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03373490785182566</v>
+      </c>
+      <c r="E54">
+        <v>0.01830239029109026</v>
+      </c>
+      <c r="F54">
+        <v>0.004001752239416577</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.02546217044778821</v>
+        <v>0.1139814914993278</v>
       </c>
       <c r="C55">
-        <v>0.08667917133445853</v>
+        <v>-0.01645915985402308</v>
       </c>
       <c r="D55">
-        <v>-0.003074117926547668</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.009297861176775177</v>
+      </c>
+      <c r="E55">
+        <v>0.02782031522945401</v>
+      </c>
+      <c r="F55">
+        <v>-0.04646137202293325</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.03420182569419294</v>
+        <v>0.1770108194855851</v>
       </c>
       <c r="C56">
-        <v>0.1600502302973552</v>
+        <v>-0.01612796802125361</v>
       </c>
       <c r="D56">
-        <v>0.0202675752058502</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.001263384696211343</v>
+      </c>
+      <c r="E56">
+        <v>0.03572524417182232</v>
+      </c>
+      <c r="F56">
+        <v>-0.05095433847153268</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.01308708760576247</v>
+        <v>0.04656031698182412</v>
       </c>
       <c r="C58">
-        <v>0.05018968950658927</v>
+        <v>-0.0008807860243111156</v>
       </c>
       <c r="D58">
-        <v>-0.01007538619469171</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.06672522368293407</v>
+      </c>
+      <c r="E58">
+        <v>0.02753530118957646</v>
+      </c>
+      <c r="F58">
+        <v>0.03676748784037204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.01561492172733711</v>
+        <v>0.1672283032082624</v>
       </c>
       <c r="C59">
-        <v>0.08976971259077787</v>
+        <v>-0.01959142257847133</v>
       </c>
       <c r="D59">
-        <v>0.2352503317933185</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.216777538981369</v>
+      </c>
+      <c r="E59">
+        <v>-0.04473495306781981</v>
+      </c>
+      <c r="F59">
+        <v>0.03514368935852947</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.02944699522541263</v>
+        <v>0.2312709596238147</v>
       </c>
       <c r="C60">
-        <v>0.2743220532243577</v>
+        <v>0.002708395427773347</v>
       </c>
       <c r="D60">
-        <v>-0.006325934373844645</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04191416511999378</v>
+      </c>
+      <c r="E60">
+        <v>0.01110097476033445</v>
+      </c>
+      <c r="F60">
+        <v>0.006392818817910333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.03064352223517459</v>
+        <v>0.08238920485807569</v>
       </c>
       <c r="C61">
-        <v>0.1236039926630596</v>
+        <v>-0.01221720025775529</v>
       </c>
       <c r="D61">
-        <v>-0.02534858348155977</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1154400440767738</v>
+      </c>
+      <c r="E61">
+        <v>0.0385122460667047</v>
+      </c>
+      <c r="F61">
+        <v>-0.01075791089426467</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.03648274682749567</v>
+        <v>0.1705470349760662</v>
       </c>
       <c r="C62">
-        <v>0.1626721958910141</v>
+        <v>-0.01946467023501774</v>
       </c>
       <c r="D62">
-        <v>0.01955040285711153</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.007083578811149785</v>
+      </c>
+      <c r="E62">
+        <v>0.03493854344130371</v>
+      </c>
+      <c r="F62">
+        <v>-0.03427839548119019</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01214759110891557</v>
+        <v>0.04564847415272909</v>
       </c>
       <c r="C63">
-        <v>0.05236039453120814</v>
+        <v>-0.002044913305295631</v>
       </c>
       <c r="D63">
-        <v>-0.01083815191140111</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05821966220760533</v>
+      </c>
+      <c r="E63">
+        <v>0.02122393614239127</v>
+      </c>
+      <c r="F63">
+        <v>-0.005855702687330648</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.0247326939382404</v>
+        <v>0.1109115897705588</v>
       </c>
       <c r="C64">
-        <v>0.09642336867126676</v>
+        <v>-0.01130538331288544</v>
       </c>
       <c r="D64">
-        <v>0.005336477898536102</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04220361280147804</v>
+      </c>
+      <c r="E64">
+        <v>0.02387775404132818</v>
+      </c>
+      <c r="F64">
+        <v>-0.02546930326135107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.03996564336681122</v>
+        <v>0.1480983528463616</v>
       </c>
       <c r="C65">
-        <v>0.1067709959053093</v>
+        <v>-0.03259921248295488</v>
       </c>
       <c r="D65">
-        <v>0.01912474980529875</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04235313781183896</v>
+      </c>
+      <c r="E65">
+        <v>0.002720005795972938</v>
+      </c>
+      <c r="F65">
+        <v>-0.03997777672748731</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.04170275219225993</v>
+        <v>0.1252502977154792</v>
       </c>
       <c r="C66">
-        <v>0.1924968374161255</v>
+        <v>-0.01438413574610799</v>
       </c>
       <c r="D66">
-        <v>-0.05145288845373366</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1416323947655216</v>
+      </c>
+      <c r="E66">
+        <v>0.066432338429569</v>
+      </c>
+      <c r="F66">
+        <v>-0.03038227399228144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01491214166481006</v>
+        <v>0.06078056382746491</v>
       </c>
       <c r="C67">
-        <v>0.07448612302111746</v>
+        <v>-0.00330104530611985</v>
       </c>
       <c r="D67">
-        <v>-0.005231926269078104</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05573805608513645</v>
+      </c>
+      <c r="E67">
+        <v>0.01756342058934373</v>
+      </c>
+      <c r="F67">
+        <v>0.03377668059333836</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.01721611498545504</v>
+        <v>0.1161628049585097</v>
       </c>
       <c r="C68">
-        <v>0.02411570670282496</v>
+        <v>-0.02985045328011515</v>
       </c>
       <c r="D68">
-        <v>0.2045636709774317</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2601383407445924</v>
+      </c>
+      <c r="E68">
+        <v>-0.08660516249457603</v>
+      </c>
+      <c r="F68">
+        <v>-0.005562754747343758</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.005995811791342948</v>
+        <v>0.0398491011448525</v>
       </c>
       <c r="C69">
-        <v>0.033340484063548</v>
+        <v>-0.001416449648197963</v>
       </c>
       <c r="D69">
-        <v>0.004837723778925876</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007151749313521852</v>
+      </c>
+      <c r="E69">
+        <v>0.02309240715846117</v>
+      </c>
+      <c r="F69">
+        <v>0.0009933941705388891</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.0005218899172016748</v>
+        <v>0.06582299421171192</v>
       </c>
       <c r="C70">
-        <v>0.03588313353888542</v>
+        <v>0.02797706808174157</v>
       </c>
       <c r="D70">
-        <v>0.00394360973622696</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02498720007967294</v>
+      </c>
+      <c r="E70">
+        <v>-0.03982704809414562</v>
+      </c>
+      <c r="F70">
+        <v>0.1861551603899305</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.02103309961928752</v>
+        <v>0.1362742536200452</v>
       </c>
       <c r="C71">
-        <v>0.03087054824255625</v>
+        <v>-0.03441775383136016</v>
       </c>
       <c r="D71">
-        <v>0.2174594020312239</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.273289141898758</v>
+      </c>
+      <c r="E71">
+        <v>-0.09626901918036961</v>
+      </c>
+      <c r="F71">
+        <v>-0.01219913141467271</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.03690258799013522</v>
+        <v>0.1419465430716299</v>
       </c>
       <c r="C72">
-        <v>0.1186585575344878</v>
+        <v>-0.0257427239722771</v>
       </c>
       <c r="D72">
-        <v>0.03350332211285908</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0003698683960513485</v>
+      </c>
+      <c r="E72">
+        <v>0.03890395947421223</v>
+      </c>
+      <c r="F72">
+        <v>-0.03509668437220694</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.03484654277119481</v>
+        <v>0.2006806738398668</v>
       </c>
       <c r="C73">
-        <v>0.2127772381396679</v>
+        <v>-0.01251809084942743</v>
       </c>
       <c r="D73">
-        <v>0.04950754180132907</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01695186578596883</v>
+      </c>
+      <c r="E73">
+        <v>0.06455991187988863</v>
+      </c>
+      <c r="F73">
+        <v>-0.03828952394175193</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.02109194324079854</v>
+        <v>0.09485738183090657</v>
       </c>
       <c r="C74">
-        <v>0.1074049206181703</v>
+        <v>-0.01310720243825224</v>
       </c>
       <c r="D74">
-        <v>0.01859557813587158</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.017680849643206</v>
+      </c>
+      <c r="E74">
+        <v>0.04450270798256795</v>
+      </c>
+      <c r="F74">
+        <v>-0.05595531661851743</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.04250363280701232</v>
+        <v>0.1283048166846145</v>
       </c>
       <c r="C75">
-        <v>0.1331377757838635</v>
+        <v>-0.02765118373292612</v>
       </c>
       <c r="D75">
-        <v>0.02593377625701995</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03024425920763476</v>
+      </c>
+      <c r="E75">
+        <v>0.05798242317997735</v>
+      </c>
+      <c r="F75">
+        <v>-0.01749265628048363</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0003096603608811569</v>
+        <v>0.0008300696871260604</v>
       </c>
       <c r="C76">
-        <v>0.002620885896193163</v>
+        <v>-0.0002260273365376626</v>
       </c>
       <c r="D76">
-        <v>0.003462438357160542</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0008178347202515581</v>
+      </c>
+      <c r="E76">
+        <v>0.0001293266549330221</v>
+      </c>
+      <c r="F76">
+        <v>-0.0006617100137282831</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02421448588877529</v>
+        <v>0.08554731005784623</v>
       </c>
       <c r="C77">
-        <v>0.0954967318597492</v>
+        <v>-0.008298128928472303</v>
       </c>
       <c r="D77">
-        <v>-0.06941367741619595</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1140194522102954</v>
+      </c>
+      <c r="E77">
+        <v>0.03884650130387688</v>
+      </c>
+      <c r="F77">
+        <v>-0.03167598095142865</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.05480233942615263</v>
+        <v>0.09993075913956717</v>
       </c>
       <c r="C78">
-        <v>0.1383802760440018</v>
+        <v>-0.03949994316565626</v>
       </c>
       <c r="D78">
-        <v>0.00400562720059646</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1168043961864655</v>
+      </c>
+      <c r="E78">
+        <v>0.07494201690917181</v>
+      </c>
+      <c r="F78">
+        <v>-0.04594484871764179</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.03761001693535267</v>
+        <v>0.1646671848419739</v>
       </c>
       <c r="C79">
-        <v>0.1438958659326676</v>
+        <v>-0.02211448237685314</v>
       </c>
       <c r="D79">
-        <v>0.02695027802152378</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01607951559026293</v>
+      </c>
+      <c r="E79">
+        <v>0.04687399608230584</v>
+      </c>
+      <c r="F79">
+        <v>-0.0108792776015033</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.00931214275788343</v>
+        <v>0.0823483071806529</v>
       </c>
       <c r="C80">
-        <v>0.08339909156323587</v>
+        <v>0.0008949025381905587</v>
       </c>
       <c r="D80">
-        <v>0.005083929663492691</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05725687117024667</v>
+      </c>
+      <c r="E80">
+        <v>0.03723096218799946</v>
+      </c>
+      <c r="F80">
+        <v>0.02465144112387302</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.04436650299025945</v>
+        <v>0.1216328561913087</v>
       </c>
       <c r="C81">
-        <v>0.1378058579765824</v>
+        <v>-0.03156236622916925</v>
       </c>
       <c r="D81">
-        <v>0.01092892629200765</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01630700391991423</v>
+      </c>
+      <c r="E81">
+        <v>0.05792613035180363</v>
+      </c>
+      <c r="F81">
+        <v>-0.01587992414911077</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.03943563814916049</v>
+        <v>0.1664611475836269</v>
       </c>
       <c r="C82">
-        <v>0.1651049363051542</v>
+        <v>-0.02400672906240725</v>
       </c>
       <c r="D82">
-        <v>0.02517952765097213</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.003608000610095401</v>
+      </c>
+      <c r="E82">
+        <v>0.02777262205500378</v>
+      </c>
+      <c r="F82">
+        <v>-0.07913467058198882</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.01729951018847077</v>
+        <v>0.06076944365307142</v>
       </c>
       <c r="C83">
-        <v>0.07169133106869256</v>
+        <v>-0.003140352270324994</v>
       </c>
       <c r="D83">
-        <v>-0.004958424296610201</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05007461322900992</v>
+      </c>
+      <c r="E83">
+        <v>0.004704681175501367</v>
+      </c>
+      <c r="F83">
+        <v>0.03201535818408341</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.0272461804075997</v>
+        <v>0.05810794250961529</v>
       </c>
       <c r="C84">
-        <v>0.07857240466648438</v>
+        <v>-0.01098219517792012</v>
       </c>
       <c r="D84">
-        <v>-0.01377383327693345</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06502971579920896</v>
+      </c>
+      <c r="E84">
+        <v>0.007372293056249228</v>
+      </c>
+      <c r="F84">
+        <v>-0.003433602829131622</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.03900237216206252</v>
+        <v>0.1366044339065227</v>
       </c>
       <c r="C85">
-        <v>0.1188835585054998</v>
+        <v>-0.02746686685237915</v>
       </c>
       <c r="D85">
-        <v>0.01226219237218353</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01166166110416742</v>
+      </c>
+      <c r="E85">
+        <v>0.03901130813131875</v>
+      </c>
+      <c r="F85">
+        <v>-0.04526390450891026</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.01196642761872543</v>
+        <v>0.0936183815640346</v>
       </c>
       <c r="C86">
-        <v>0.09748343404398124</v>
+        <v>0.006469746620458124</v>
       </c>
       <c r="D86">
-        <v>0.2358931599748378</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04189131623260015</v>
+      </c>
+      <c r="E86">
+        <v>0.2109440943936923</v>
+      </c>
+      <c r="F86">
+        <v>0.9087448776845686</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.03946387896387912</v>
+        <v>0.0969790295540274</v>
       </c>
       <c r="C87">
-        <v>0.101943725525712</v>
+        <v>-0.02001408940492697</v>
       </c>
       <c r="D87">
-        <v>-0.0589600713306109</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09572552598922721</v>
+      </c>
+      <c r="E87">
+        <v>-0.05070689776370671</v>
+      </c>
+      <c r="F87">
+        <v>-0.05292592031766868</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01374225602583427</v>
+        <v>0.06083634232852012</v>
       </c>
       <c r="C88">
-        <v>0.06033535479264193</v>
+        <v>-0.00224760188267221</v>
       </c>
       <c r="D88">
-        <v>-0.009408931953933119</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04989155316632411</v>
+      </c>
+      <c r="E88">
+        <v>0.02467397785280699</v>
+      </c>
+      <c r="F88">
+        <v>-0.01175304974858882</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.002305259696164076</v>
+        <v>0.1342353198802465</v>
       </c>
       <c r="C89">
-        <v>0.04942202408297107</v>
+        <v>-0.012266237296419</v>
       </c>
       <c r="D89">
-        <v>0.2589967706368291</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2528431460200533</v>
+      </c>
+      <c r="E89">
+        <v>-0.09114995658612982</v>
+      </c>
+      <c r="F89">
+        <v>0.008379467115610729</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.01951288774952064</v>
+        <v>0.1495129360544157</v>
       </c>
       <c r="C90">
-        <v>0.03359582350537826</v>
+        <v>-0.03044558359940349</v>
       </c>
       <c r="D90">
-        <v>0.2256358864485424</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2683934714014652</v>
+      </c>
+      <c r="E90">
+        <v>-0.1115042640848371</v>
+      </c>
+      <c r="F90">
+        <v>0.0016616166435286</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.02477474877717839</v>
+        <v>0.1203084683708086</v>
       </c>
       <c r="C91">
-        <v>0.1004986667532264</v>
+        <v>-0.01858337014326549</v>
       </c>
       <c r="D91">
-        <v>0.02473245332883716</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01290455358081233</v>
+      </c>
+      <c r="E91">
+        <v>0.05612864149471947</v>
+      </c>
+      <c r="F91">
+        <v>0.003383910768429151</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.004959445832747915</v>
+        <v>0.1473779946271771</v>
       </c>
       <c r="C92">
-        <v>0.04618735699014508</v>
+        <v>-0.02233938719182057</v>
       </c>
       <c r="D92">
-        <v>0.2459945197249419</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2920704900357128</v>
+      </c>
+      <c r="E92">
+        <v>-0.1005079616597295</v>
+      </c>
+      <c r="F92">
+        <v>0.01384320431496209</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.01678118936654649</v>
+        <v>0.1516338514619469</v>
       </c>
       <c r="C93">
-        <v>0.04729250304726773</v>
+        <v>-0.02648368634963107</v>
       </c>
       <c r="D93">
-        <v>0.2493854034402779</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.269039783423533</v>
+      </c>
+      <c r="E93">
+        <v>-0.07759232170836847</v>
+      </c>
+      <c r="F93">
+        <v>-0.002680988729225597</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.04148113850111196</v>
+        <v>0.130974878473615</v>
       </c>
       <c r="C94">
-        <v>0.1491309426592417</v>
+        <v>-0.02454063974788181</v>
       </c>
       <c r="D94">
-        <v>0.0101965575801354</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04287895305118639</v>
+      </c>
+      <c r="E94">
+        <v>0.05765263934670713</v>
+      </c>
+      <c r="F94">
+        <v>-0.03552141191517598</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.02668115196740787</v>
+        <v>0.1275352506138877</v>
       </c>
       <c r="C95">
-        <v>0.1422949538630615</v>
+        <v>-0.00408131790983213</v>
       </c>
       <c r="D95">
-        <v>-0.02402498794895026</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09099786377008859</v>
+      </c>
+      <c r="E95">
+        <v>0.04643123503386406</v>
+      </c>
+      <c r="F95">
+        <v>0.007373111743742155</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9738531029324567</v>
+        <v>0.1050327922066966</v>
       </c>
       <c r="C96">
-        <v>0.208265082846916</v>
+        <v>0.9878500309538162</v>
       </c>
       <c r="D96">
-        <v>0.02152681007753695</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.04349038612569772</v>
+      </c>
+      <c r="E96">
+        <v>0.05591247828706004</v>
+      </c>
+      <c r="F96">
+        <v>-0.04236547735827664</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.005720196249327119</v>
+        <v>0.1933288977707806</v>
       </c>
       <c r="C97">
-        <v>0.1604250597430222</v>
+        <v>0.007724469560858456</v>
       </c>
       <c r="D97">
-        <v>0.09339600880976669</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01745523931003089</v>
+      </c>
+      <c r="E97">
+        <v>0.01771434190466491</v>
+      </c>
+      <c r="F97">
+        <v>0.0889403467780243</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.02789411361265815</v>
+        <v>0.2044566662654562</v>
       </c>
       <c r="C98">
-        <v>0.1992665105709952</v>
+        <v>-0.007245534313945746</v>
       </c>
       <c r="D98">
-        <v>0.03288882747363767</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01169241453602202</v>
+      </c>
+      <c r="E98">
+        <v>-0.08429488739307793</v>
+      </c>
+      <c r="F98">
+        <v>0.09473249972953345</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.005388983818618493</v>
+        <v>0.05549649010305361</v>
       </c>
       <c r="C99">
-        <v>0.06418071363426928</v>
+        <v>0.004878462085664732</v>
       </c>
       <c r="D99">
-        <v>0.02394019416817095</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.04023987704559856</v>
+      </c>
+      <c r="E99">
+        <v>0.0234529797973447</v>
+      </c>
+      <c r="F99">
+        <v>-0.00128933182027639</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.008315834109015577</v>
+        <v>0.125185238212855</v>
       </c>
       <c r="C100">
-        <v>0.1911319369023095</v>
+        <v>0.05374898907678851</v>
       </c>
       <c r="D100">
-        <v>-0.656934556753705</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3446346030423658</v>
+      </c>
+      <c r="E100">
+        <v>-0.8895616836241145</v>
+      </c>
+      <c r="F100">
+        <v>0.1389534129052429</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01310441456590463</v>
+        <v>0.02758242120551729</v>
       </c>
       <c r="C101">
-        <v>0.02817127184877985</v>
+        <v>-0.008145177817416862</v>
       </c>
       <c r="D101">
-        <v>0.008740657335031978</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03200878549105273</v>
+      </c>
+      <c r="E101">
+        <v>0.01071681816322749</v>
+      </c>
+      <c r="F101">
+        <v>0.011714444855978</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
